--- a/P/Work.WebApp/_Code/Excel/文玄LCD光明燈導出資料表.xlsx
+++ b/P/Work.WebApp/_Code/Excel/文玄LCD光明燈導出資料表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -29,7 +29,7 @@
   </si>
   <si>
     <t>燈位位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手機</t>
@@ -48,34 +48,26 @@
   </si>
   <si>
     <t>訂單編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安燈日期(訂單日期)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尋燈編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文玄光明燈系統導入資料表-沉香媽祖燈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="宋体"/>
     </font>
     <font>
       <sz val="9"/>
@@ -117,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,15 +133,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -181,47 +164,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,11 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
@@ -547,114 +522,79 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
